--- a/templates/dataplant/MetaboLights/MetaboLights_-_Mass_spectrometry.xlsx
+++ b/templates/dataplant/MetaboLights/MetaboLights_-_Mass_spectrometry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Description</t>
@@ -219,6 +219,27 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>positive scan</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000130</t>
+  </si>
+  <si>
+    <t>100-1000</t>
+  </si>
+  <si>
+    <t>Bruker micrOTOF-Q II</t>
+  </si>
+  <si>
+    <t>electrospray ionization</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000073</t>
+  </si>
+  <si>
+    <t>triple quadrupole</t>
   </si>
 </sst>
 </file>
@@ -907,28 +928,28 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
         <v>68</v>
@@ -937,7 +958,7 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
         <v>68</v>
@@ -946,16 +967,16 @@
         <v>68</v>
       </c>
       <c r="O2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s">
         <v>68</v>

--- a/templates/dataplant/MetaboLights/MetaboLights_-_Mass_spectrometry.xlsx
+++ b/templates/dataplant/MetaboLights/MetaboLights_-_Mass_spectrometry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Description</t>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Term Accession Number (DPBO:1000161)</t>
-  </si>
-  <si>
-    <t>Protocol REF</t>
   </si>
   <si>
     <t>Parameter [scan polarity]</t>
@@ -295,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:U2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:U2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:T2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:T2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -317,30 +314,28 @@
     <filterColumn colId="17" hiddenButton="1"/>
     <filterColumn colId="18" hiddenButton="1"/>
     <filterColumn colId="19" hiddenButton="1"/>
-    <filterColumn colId="20" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="21">
+  <tableColumns count="20">
     <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Protocol Type" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (DPBO:1000161)" totalsRowFunction="none"/>
     <tableColumn id="4" name="Term Accession Number (DPBO:1000161)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Protocol REF" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Parameter [scan polarity]" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Source REF (MS:1000465)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Term Accession Number (MS:1000465)" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Parameter [m/z acquisition range]" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Source REF (MS:4000069)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Term Accession Number (MS:4000069)" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Parameter [instrument]" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Source REF (MS:1000463)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Term Accession Number (MS:1000463)" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Parameter [ion source]" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Source REF (OBI:0000361)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Term Accession Number (OBI:0000361)" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Parameter [mass analyzer]" totalsRowFunction="none"/>
-    <tableColumn id="19" name="Term Source REF (MS:1000451)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Term Accession Number (MS:1000451)" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Output [Raw Data File]" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Parameter [scan polarity]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (MS:1000465)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (MS:1000465)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Parameter [m/z acquisition range]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (MS:4000069)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (MS:4000069)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Parameter [instrument]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (MS:1000463)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (MS:1000463)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Parameter [ion source]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Source REF (OBI:0000361)" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Accession Number (OBI:0000361)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Parameter [mass analyzer]" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Term Source REF (MS:1000451)" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Term Accession Number (MS:1000451)" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Output [Raw Data File]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -855,10 +850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -919,13 +914,10 @@
       <c r="T1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -940,52 +932,49 @@
         <v>68</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>70</v>
       </c>
       <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
         <v>71</v>
       </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
-        <v>68</v>
-      </c>
       <c r="L2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
         <v>72</v>
       </c>
-      <c r="M2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" t="s">
-        <v>68</v>
-      </c>
       <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
         <v>73</v>
-      </c>
-      <c r="P2" t="s">
-        <v>12</v>
       </c>
       <c r="Q2" t="s">
         <v>74</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="S2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/MetaboLights/MetaboLights_-_Mass_spectrometry.xlsx
+++ b/templates/dataplant/MetaboLights/MetaboLights_-_Mass_spectrometry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Description</t>
@@ -185,7 +185,7 @@
     <t>Term Accession Number (MS:4000069)</t>
   </si>
   <si>
-    <t>Parameter [instrument]</t>
+    <t>Component [instrument]</t>
   </si>
   <si>
     <t>Term Source REF (MS:1000463)</t>
@@ -212,16 +212,19 @@
     <t>Term Accession Number (MS:1000451)</t>
   </si>
   <si>
-    <t>Output [Raw Data File]</t>
+    <t>Output [Data]</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>https://bioregistry.io/NCIT:C17156</t>
+  </si>
+  <si>
     <t>positive scan</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000130</t>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/ms/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FMS_1000130</t>
   </si>
   <si>
     <t>100-1000</t>
@@ -233,7 +236,7 @@
     <t>electrospray ionization</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000073</t>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/ms/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FMS_1000073</t>
   </si>
   <si>
     <t>triple quadrupole</t>
@@ -326,7 +329,7 @@
     <tableColumn id="8" name="Parameter [m/z acquisition range]" totalsRowFunction="none"/>
     <tableColumn id="9" name="Term Source REF (MS:4000069)" totalsRowFunction="none"/>
     <tableColumn id="10" name="Term Accession Number (MS:4000069)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [instrument]" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Component [instrument]" totalsRowFunction="none"/>
     <tableColumn id="12" name="Term Source REF (MS:1000463)" totalsRowFunction="none"/>
     <tableColumn id="13" name="Term Accession Number (MS:1000463)" totalsRowFunction="none"/>
     <tableColumn id="14" name="Parameter [ion source]" totalsRowFunction="none"/>
@@ -335,7 +338,7 @@
     <tableColumn id="17" name="Parameter [mass analyzer]" totalsRowFunction="none"/>
     <tableColumn id="18" name="Term Source REF (MS:1000451)" totalsRowFunction="none"/>
     <tableColumn id="19" name="Term Accession Number (MS:1000451)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Output [Raw Data File]" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Output [Data]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -926,19 +929,19 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
         <v>67</v>
@@ -947,7 +950,7 @@
         <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
         <v>67</v>
@@ -956,16 +959,16 @@
         <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O2" t="s">
         <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s">
         <v>67</v>
